--- a/live_test_coverage.xlsx
+++ b/live_test_coverage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Go\src\github.com\Alancere\demo\livetest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Go\src\github.com\Alancere\mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C74C4B5-0ED4-481F-850A-86D8C976ED69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36C115F-A620-45E7-83B0-493CB466A2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" xr2:uid="{2D954288-AD75-453A-8646-3F8487F99E6A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2D954288-AD75-453A-8646-3F8487F99E6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
-  <si>
-    <t>mgmt none live test: 119</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>armaad/v1.2.0</t>
   </si>
@@ -42,9 +39,6 @@
     <t>armappservice/v2.3.0</t>
   </si>
   <si>
-    <t>armattestation/v1.2.0</t>
-  </si>
-  <si>
     <t>armauthorization/v3.0.0-beta.2</t>
   </si>
   <si>
@@ -57,18 +51,9 @@
     <t>armazurestackhci/v2.0.0-beta.2</t>
   </si>
   <si>
-    <t>armbaremetalinfrastructure/v1.2.0</t>
-  </si>
-  <si>
     <t>armbillingbenefits/v2.1.0</t>
   </si>
   <si>
-    <t>armchangeanalysis/v1.2.0</t>
-  </si>
-  <si>
-    <t>armchaos/v1.0.0</t>
-  </si>
-  <si>
     <t>armcognitiveservices/v1.6.0</t>
   </si>
   <si>
@@ -81,9 +66,6 @@
     <t>armconfluent/v1.2.0</t>
   </si>
   <si>
-    <t>armconnectedvmware/v1.1.0</t>
-  </si>
-  <si>
     <t>armconsumption/v1.2.0</t>
   </si>
   <si>
@@ -114,9 +96,6 @@
     <t>armdatamigration/v1.2.0</t>
   </si>
   <si>
-    <t>armdataprotection/v2.4.0</t>
-  </si>
-  <si>
     <t>armdatashare/v1.2.0</t>
   </si>
   <si>
@@ -129,21 +108,12 @@
     <t>armdeviceprovisioningservices/v1.3.0-beta.1</t>
   </si>
   <si>
-    <t>armdeviceupdate/v1.2.0</t>
-  </si>
-  <si>
     <t>armdevtestlabs/v1.2.0</t>
   </si>
   <si>
     <t>armdigitaltwins/v1.2.0</t>
   </si>
   <si>
-    <t>armdns/v1.2.0</t>
-  </si>
-  <si>
-    <t>armdnsresolver/v1.2.0</t>
-  </si>
-  <si>
     <t>armdomainservices/v1.2.0</t>
   </si>
   <si>
@@ -174,9 +144,6 @@
     <t>armhealthbot/v1.2.0</t>
   </si>
   <si>
-    <t>armhealthcareapis/v1.2.0</t>
-  </si>
-  <si>
     <t>armhybridcompute/v2.0.0-beta.1</t>
   </si>
   <si>
@@ -192,21 +159,12 @@
     <t>armhybridnetwork/v2.0.0</t>
   </si>
   <si>
-    <t>armiotcentral/v1.2.0</t>
-  </si>
-  <si>
     <t>armkubernetesconfiguration/v2.2.0</t>
   </si>
   <si>
-    <t>armlabservices/v1.2.0</t>
-  </si>
-  <si>
     <t>armqumulo/v1.1.0</t>
   </si>
   <si>
-    <t>armloadtesting/v1.2.0</t>
-  </si>
-  <si>
     <t>armlogz/v1.2.0</t>
   </si>
   <si>
@@ -231,18 +189,12 @@
     <t>armmigrate/v1.2.0</t>
   </si>
   <si>
-    <t>armmsi/v1.2.0</t>
-  </si>
-  <si>
     <t>armmysql/v1.2.0</t>
   </si>
   <si>
     <t>armmysqlflexibleservers/v2.0.0-beta.2</t>
   </si>
   <si>
-    <t>armnetapp/v5.1.0</t>
-  </si>
-  <si>
     <t>armnetworkcloud/v1.1.0</t>
   </si>
   <si>
@@ -264,9 +216,6 @@
     <t>armpeering/v1.2.0</t>
   </si>
   <si>
-    <t>armpostgresqlflexibleservers/v4.0.0-beta.3</t>
-  </si>
-  <si>
     <t>armpowerbidedicated/v1.2.0</t>
   </si>
   <si>
@@ -282,9 +231,6 @@
     <t>armpurview/v1.2.0</t>
   </si>
   <si>
-    <t>armquota/v1.0.0</t>
-  </si>
-  <si>
     <t>armrecoveryservicesbackup/v3.1.0</t>
   </si>
   <si>
@@ -339,12 +285,6 @@
     <t>armmanagedapplications/v2.1.0</t>
   </si>
   <si>
-    <t>armsql/v2.0.0-beta.3</t>
-  </si>
-  <si>
-    <t>armstoragecache/v3.3.0</t>
-  </si>
-  <si>
     <t>armstoragemover/v2.1.0</t>
   </si>
   <si>
@@ -372,9 +312,6 @@
     <t>armtrafficmanager/v1.3.0</t>
   </si>
   <si>
-    <t>armvirtualmachineimagebuilder/v2.1.0</t>
-  </si>
-  <si>
     <t>armvmwarecloudsimple/v1.2.0</t>
   </si>
   <si>
@@ -388,13 +325,43 @@
   </si>
   <si>
     <t>arm name</t>
+  </si>
+  <si>
+    <t>armbaremetalinfrastructure/v2.0.0-beta.1</t>
+  </si>
+  <si>
+    <t>armconnectedvmware/v1.1.1</t>
+  </si>
+  <si>
+    <t>armdataprotection/v3.0.0</t>
+  </si>
+  <si>
+    <t>armdeviceupdate/v1.3.0</t>
+  </si>
+  <si>
+    <t>armhealthcareapis/v2.0.0</t>
+  </si>
+  <si>
+    <t>armnetapp/v6.0.0-beta.1</t>
+  </si>
+  <si>
+    <t>armpostgresqlflexibleservers/v4.0.0-beta.4</t>
+  </si>
+  <si>
+    <t>armsql/v2.0.0-beta.4</t>
+  </si>
+  <si>
+    <t>armvirtualmachineimagebuilder/v2.2.0</t>
+  </si>
+  <si>
+    <t>mgmt none live test: 108</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +376,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -431,15 +404,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,9 +432,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -495,7 +472,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -601,7 +578,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -743,7 +720,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -751,622 +728,568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4891635-D577-487A-9A44-0F42CD3FCEA1}">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1376,4 +1299,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>